--- a/Test Data/Verify_Extra_ISUnits_For_FIM_Loops.xlsx
+++ b/Test Data/Verify_Extra_ISUnits_For_FIM_Loops.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Poonam\NGConsys\Automation\Sprint 23 automation\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>PFI</t>
+  </si>
+  <si>
+    <t>Exi800 - 2</t>
+  </si>
+  <si>
+    <t>Exi800 - 1</t>
+  </si>
+  <si>
+    <t>Exi800 - 3</t>
+  </si>
+  <si>
+    <t>Exi800 - 4</t>
+  </si>
+  <si>
+    <t>Exi800 - 5</t>
   </si>
 </sst>
 </file>
@@ -256,18 +271,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,6 +286,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,12 +601,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -600,10 +615,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -712,7 +727,7 @@
       <c r="G8" s="4">
         <v>74</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>40</v>
       </c>
       <c r="I8" s="4">
@@ -879,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,19 +909,19 @@
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -916,10 +931,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -1054,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4">
         <v>16</v>
@@ -1098,7 +1113,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K9" s="4">
         <v>16</v>
@@ -1142,7 +1157,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K10" s="4">
         <v>16</v>
@@ -1186,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4">
         <v>16</v>
@@ -1230,7 +1245,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K12" s="4">
         <v>16</v>
@@ -1319,12 +1334,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1337,13 +1352,13 @@
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1359,7 +1374,7 @@
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1393,7 @@
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1401,7 @@
       <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="2"/>
@@ -1397,7 +1412,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1458,177 +1473,177 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>120</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20">
-        <v>10</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="18">
         <v>74</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>40</v>
       </c>
-      <c r="I8" s="21">
-        <v>16</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
+      <c r="J8" s="18">
         <v>3</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>120</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20">
-        <v>10</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="18">
         <v>74</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>40</v>
       </c>
-      <c r="I9" s="21">
-        <v>16</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="18">
+        <v>16</v>
+      </c>
+      <c r="J9" s="18">
         <v>3</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>120</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="20">
-        <v>10</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="18">
         <v>74</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>40</v>
       </c>
-      <c r="I10" s="21">
-        <v>16</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="I10" s="18">
+        <v>16</v>
+      </c>
+      <c r="J10" s="18">
         <v>3</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>120</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20">
-        <v>10</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="D11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18">
         <v>74</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>40</v>
       </c>
-      <c r="I11" s="21">
-        <v>16</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="I11" s="18">
+        <v>16</v>
+      </c>
+      <c r="J11" s="18">
         <v>3</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>120</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="18">
         <v>74</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>40</v>
       </c>
-      <c r="I12" s="21">
-        <v>16</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="I12" s="18">
+        <v>16</v>
+      </c>
+      <c r="J12" s="18">
         <v>3</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1645,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,12 +1678,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1684,13 +1699,13 @@
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1709,7 +1724,7 @@
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1746,7 @@
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1754,7 @@
       <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="2"/>
@@ -1753,7 +1768,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1833,28 +1848,28 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>120</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20">
-        <v>10</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21">
-        <v>26</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="18">
+        <v>26</v>
+      </c>
+      <c r="H8" s="17">
         <v>14</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1863,42 +1878,42 @@
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="21">
-        <v>16</v>
-      </c>
-      <c r="L8" s="21">
-        <v>2</v>
-      </c>
-      <c r="M8" s="21" t="s">
+      <c r="K8" s="18">
+        <v>16</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>120</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20">
-        <v>10</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="21">
-        <v>26</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="18">
+        <v>26</v>
+      </c>
+      <c r="H9" s="17">
         <v>14</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1907,42 +1922,42 @@
       <c r="J9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="21">
-        <v>16</v>
-      </c>
-      <c r="L9" s="21">
-        <v>2</v>
-      </c>
-      <c r="M9" s="21" t="s">
+      <c r="K9" s="18">
+        <v>16</v>
+      </c>
+      <c r="L9" s="18">
+        <v>2</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>120</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="20">
-        <v>10</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="21">
-        <v>26</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="18">
+        <v>26</v>
+      </c>
+      <c r="H10" s="17">
         <v>14</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1951,42 +1966,42 @@
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="21">
-        <v>16</v>
-      </c>
-      <c r="L10" s="21">
-        <v>2</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="K10" s="18">
+        <v>16</v>
+      </c>
+      <c r="L10" s="18">
+        <v>2</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>120</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20">
-        <v>10</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="21">
-        <v>26</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="D11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18">
+        <v>26</v>
+      </c>
+      <c r="H11" s="17">
         <v>14</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1995,42 +2010,42 @@
       <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21">
-        <v>16</v>
-      </c>
-      <c r="L11" s="21">
-        <v>2</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="K11" s="18">
+        <v>16</v>
+      </c>
+      <c r="L11" s="18">
+        <v>2</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>120</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="21">
-        <v>26</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="18">
+        <v>26</v>
+      </c>
+      <c r="H12" s="17">
         <v>14</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -2039,42 +2054,42 @@
       <c r="J12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="21">
-        <v>16</v>
-      </c>
-      <c r="L12" s="21">
-        <v>2</v>
-      </c>
-      <c r="M12" s="21" t="s">
+      <c r="K12" s="18">
+        <v>16</v>
+      </c>
+      <c r="L12" s="18">
+        <v>2</v>
+      </c>
+      <c r="M12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>120</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="20">
-        <v>10</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="21">
-        <v>26</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="D13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="18">
+        <v>26</v>
+      </c>
+      <c r="H13" s="17">
         <v>14</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -2083,16 +2098,16 @@
       <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="21">
-        <v>16</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="K13" s="18">
+        <v>16</v>
+      </c>
+      <c r="L13" s="18">
         <v>1</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>2</v>
       </c>
     </row>
